--- a/Coursework-Reports/pr.xlsx
+++ b/Coursework-Reports/pr.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Parallel-Programming\Coursework-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC1253C-7B5B-4894-93F5-8FD7E8214C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EDBC5F-E513-413D-A2E3-5E862E5FF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Calka</t>
   </si>
@@ -69,9 +70,6 @@
   </si>
   <si>
     <t>p</t>
-  </si>
-  <si>
-    <t>S_s(p)</t>
   </si>
   <si>
     <t>T(1)</t>
@@ -114,6 +112,36 @@
   </si>
   <si>
     <t>Średnia</t>
+  </si>
+  <si>
+    <t>S(p, W0)</t>
+  </si>
+  <si>
+    <t>S(p, 2W0)</t>
+  </si>
+  <si>
+    <t>S(p, 4W0)</t>
+  </si>
+  <si>
+    <t>S(p, 8W0)</t>
+  </si>
+  <si>
+    <t>E(p, W0)</t>
+  </si>
+  <si>
+    <t>E(p, 2W0)</t>
+  </si>
+  <si>
+    <t>E(p, 4W0)</t>
+  </si>
+  <si>
+    <t>E(p, 8W0)</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>S_s(p, W0)</t>
   </si>
 </sst>
 </file>
@@ -224,28 +252,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,16 +521,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.296844</c:v>
+                  <c:v>0.30980999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15273400000000001</c:v>
+                  <c:v>0.147087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1022000000000006E-2</c:v>
+                  <c:v>8.5738999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.114498</c:v>
+                  <c:v>8.6384000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,16 +608,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.59368799999999999</c:v>
+                  <c:v>0.538879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30546800000000002</c:v>
+                  <c:v>0.28979100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18204400000000001</c:v>
+                  <c:v>0.15968599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22899600000000001</c:v>
+                  <c:v>0.16919500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,16 +695,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.187376</c:v>
+                  <c:v>1.125046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61093600000000003</c:v>
+                  <c:v>0.578731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36408800000000002</c:v>
+                  <c:v>0.30671599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45799200000000001</c:v>
+                  <c:v>0.32506600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,7 +868,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -877,7 +900,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2524,7 +2547,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Przyspieszenie</c:v>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S(p, W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2551,22 +2582,25 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>8</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2593,6 +2627,267 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3E54-4189-8535-532D2BC19331}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S(p, 2W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1063044320708153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6134081339880333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5864280422300423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-968A-48F5-96F7-0827913BA74A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S(p, 4W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.859543602113247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3746164347532033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1849581843435089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-968A-48F5-96F7-0827913BA74A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S(p, 8W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9439877939837333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6680381851615178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4609771554084401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-968A-48F5-96F7-0827913BA74A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2849,6 +3144,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2980,7 +3306,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Efektywność</c:v>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(p, W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3029,7 +3363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$G$3:$G$6</c:f>
+              <c:f>'Arkusz 1'!$J$3:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3052,6 +3386,267 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4AAF-4678-837C-E9FB3F90B1E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(p, 2W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0531522160354077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90335203349700832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44830350527875529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E697-4293-B412-06AFCECDE797}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(p, 4W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$L$3:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92977180105662349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84365410868830082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39811977304293861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E697-4293-B412-06AFCECDE797}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E(p, 8W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$M$3:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97199389699186667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91700954629037945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43262214442605501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E697-4293-B412-06AFCECDE797}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3308,6 +3903,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4431,7 +5057,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$G$27:$G$30</c:f>
+              <c:f>'Arkusz 1'!$J$27:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5354,7 +5980,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$I$51:$I$54</c:f>
+              <c:f>'Arkusz 1'!$F$51:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5847,7 +6473,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$H$51:$H$54</c:f>
+              <c:f>'Arkusz 1'!$E$51:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12856,7 +13482,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -12892,13 +13518,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12928,13 +13554,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13569,49 +14195,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="M1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="10"/>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="T1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1">
         <v>1</v>
       </c>
-      <c r="S1">
+      <c r="Y1">
         <v>2</v>
       </c>
-      <c r="T1">
+      <c r="Z1">
         <v>4</v>
       </c>
-      <c r="U1">
+      <c r="AA1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -13627,103 +14258,143 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2">
         <v>2.7</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2">
+      <c r="W2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2">
         <v>4.2</v>
       </c>
-      <c r="S2">
+      <c r="Y2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="T2">
+      <c r="Z2">
         <v>4.1900000000000004</v>
       </c>
-      <c r="U2">
+      <c r="AA2">
         <v>4.18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.148422</v>
       </c>
-      <c r="C3" s="2">
-        <f>B3*2</f>
-        <v>0.296844</v>
+      <c r="C3">
+        <v>0.30980999999999997</v>
       </c>
       <c r="D3" s="2">
-        <f>B3*4</f>
-        <v>0.59368799999999999</v>
+        <v>0.538879</v>
       </c>
       <c r="E3" s="2">
-        <f>B3*8</f>
-        <v>1.187376</v>
+        <v>1.125046</v>
       </c>
       <c r="F3" s="2">
-        <f>$B$3/B3</f>
+        <f>B$3/B3</f>
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f>F3/A3</f>
+        <f t="shared" ref="G3:I6" si="0">C$3/C3</f>
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <f>B3*N3/$N$2</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <f>F3/$A3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:M6" si="1">G3/$A3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <f>B3*U3/$U$2</f>
         <v>0.23005410000000001</v>
       </c>
-      <c r="I3" s="13">
-        <f>$K$3/(H3*1000000000)</f>
-        <v>4.7814840074573764E-8</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <f>R6</f>
+      <c r="O3" s="5">
+        <f>$R$3/(N3*1000000000)</f>
+        <v>4.7814840074573759</v>
+      </c>
+      <c r="R3">
+        <f>11*100000000</f>
+        <v>1100000000</v>
+      </c>
+      <c r="T3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <f>X6</f>
         <v>4.1850000000000005</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3">
+      <c r="W3" s="6"/>
+      <c r="X3">
         <v>4.12</v>
       </c>
-      <c r="S3">
+      <c r="Y3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="T3">
+      <c r="Z3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U3">
+      <c r="AA3">
         <v>4.22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -13731,55 +14402,76 @@
         <v>7.6367000000000004E-2</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C6" si="0">B4*2</f>
-        <v>0.15273400000000001</v>
+        <v>0.147087</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D6" si="1">B4*4</f>
-        <v>0.30546800000000002</v>
+        <v>0.28979100000000002</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E6" si="2">B4*8</f>
-        <v>0.61093600000000003</v>
+        <v>0.578731</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F6" si="3">$B$3/B4</f>
+        <f t="shared" ref="F4:F6" si="2">B$3/B4</f>
         <v>1.943535820446004</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G6" si="4">F4/A4</f>
+        <f t="shared" si="0"/>
+        <v>2.1063044320708153</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.859543602113247</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9439877939837333</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J6" si="3">F4/$A4</f>
         <v>0.97176791022300202</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H6" si="5">B4*N4/$N$2</f>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0531522160354077</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.92977180105662349</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.97199389699186667</v>
+      </c>
+      <c r="N4" s="2">
+        <f>B4*U4/$U$2</f>
         <v>0.11674251574074075</v>
       </c>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:I6" si="6">$K$3/(H4*1000000000)</f>
-        <v>9.4224455676701047E-8</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4">
-        <f>S6</f>
+      <c r="O4" s="5">
+        <f>$R$3/(N4*1000000000)</f>
+        <v>9.4224455676701044</v>
+      </c>
+      <c r="T4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4">
+        <f>Y6</f>
         <v>4.1275000000000004</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4">
+      <c r="W4" s="6"/>
+      <c r="X4">
         <v>4.18</v>
       </c>
-      <c r="S4">
+      <c r="Y4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T4">
+      <c r="Z4">
         <v>4.07</v>
       </c>
-      <c r="U4">
+      <c r="AA4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13787,55 +14479,76 @@
         <v>4.5511000000000003E-2</v>
       </c>
       <c r="C5" s="2">
+        <v>8.5738999999999996E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.15968599999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.30671599999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2612335479334664</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>9.1022000000000006E-2</v>
-      </c>
-      <c r="D5" s="2">
+        <v>3.6134081339880333</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3746164347532033</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6680381851615178</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81530838698336661</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
-        <v>0.18204400000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.36408800000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="3"/>
-        <v>3.2612335479334664</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.81530838698336661</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="5"/>
+        <v>0.90335203349700832</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.84365410868830082</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91700954629037945</v>
+      </c>
+      <c r="N5" s="2">
+        <f>B5*U5/$U$2</f>
         <v>6.9319995370370369E-2</v>
       </c>
-      <c r="I5" s="13">
-        <f t="shared" si="6"/>
-        <v>1.5868437297532998E-7</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5">
-        <f>T6</f>
+      <c r="O5" s="5">
+        <f>$R$3/(N5*1000000000)</f>
+        <v>15.868437297532997</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5">
+        <f>Z6</f>
         <v>4.1124999999999998</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5">
+      <c r="W5" s="6"/>
+      <c r="X5">
         <v>4.24</v>
       </c>
-      <c r="S5">
+      <c r="Y5">
         <v>4.1100000000000003</v>
       </c>
-      <c r="T5">
+      <c r="Z5">
         <v>4.09</v>
       </c>
-      <c r="U5">
+      <c r="AA5">
         <v>4.18</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -13843,72 +14556,99 @@
         <v>5.7249000000000001E-2</v>
       </c>
       <c r="C6" s="2">
+        <v>8.6384000000000002E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.16919500000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.32506600000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5925693025205678</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>0.114498</v>
-      </c>
-      <c r="D6" s="2">
+        <v>3.5864280422300423</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1849581843435089</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4609771554084401</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.32407116281507098</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>0.22899600000000001</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.45799200000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="3"/>
-        <v>2.5925693025205678</v>
-      </c>
-      <c r="G6" s="2">
+        <v>0.44830350527875529</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39811977304293861</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43262214442605501</v>
+      </c>
+      <c r="N6" s="2">
+        <f>B6*U6/$U$2</f>
+        <v>8.8417899999999994E-2</v>
+      </c>
+      <c r="O6" s="5">
+        <f>$R$3/(N6*1000000000)</f>
+        <v>12.440919768508413</v>
+      </c>
+      <c r="T6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6">
+        <f>AA6</f>
+        <v>4.17</v>
+      </c>
+      <c r="W6" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6">
+        <f>AVERAGE(X2:X5)</f>
+        <v>4.1850000000000005</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:AA6" si="4">AVERAGE(Y2:Y5)</f>
+        <v>4.1275000000000004</v>
+      </c>
+      <c r="Z6">
         <f t="shared" si="4"/>
-        <v>0.32407116281507098</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="5"/>
-        <v>8.8417899999999994E-2</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="6"/>
-        <v>1.2440919768508412E-7</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6">
-        <f>U6</f>
+        <v>4.1124999999999998</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
         <v>4.17</v>
       </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6">
-        <f>AVERAGE(R2:R5)</f>
-        <v>4.1850000000000005</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ref="S6:U6" si="7">AVERAGE(S2:S5)</f>
-        <v>4.1275000000000004</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="7"/>
-        <v>4.1124999999999998</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="7"/>
-        <v>4.17</v>
-      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="R25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -13924,190 +14664,298 @@
       <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="F26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>9</v>
+      <c r="R26">
+        <f>2*S26*S26</f>
+        <v>203212800</v>
+      </c>
+      <c r="S26">
+        <v>10080</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
       <c r="B27" s="2">
         <v>0.108181</v>
       </c>
-      <c r="C27" s="2">
-        <f>B27*2</f>
-        <v>0.216362</v>
-      </c>
-      <c r="D27" s="2">
-        <f>B27*4</f>
-        <v>0.432724</v>
-      </c>
-      <c r="E27" s="2">
-        <f>B27*8</f>
-        <v>0.865448</v>
+      <c r="C27" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F27" s="2">
-        <f>$B$27/B27</f>
+        <f>B$27/B27</f>
         <v>1</v>
       </c>
-      <c r="G27" s="2">
-        <f>F27/A27</f>
+      <c r="G27" s="2" t="e">
+        <f t="shared" ref="G27:I30" si="5">C$27/C27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" s="2">
+        <f>F27/$A27</f>
         <v>1</v>
       </c>
-      <c r="H27" s="2">
-        <f>B27*N3/$N$2</f>
+      <c r="K27" s="2" t="e">
+        <f t="shared" ref="K27:M30" si="6">G27/$A27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="2">
+        <f>B27*U3/$U$2</f>
         <v>0.16768055000000001</v>
       </c>
-      <c r="I27" s="13">
-        <f>$K$27/(H27*1000000000)</f>
+      <c r="O27" s="5">
+        <f>$R$26/(N27*1000000000)</f>
         <v>1.2119044218306774</v>
       </c>
-      <c r="K27">
-        <f>2*L27*L27</f>
-        <v>203212800</v>
-      </c>
-      <c r="L27">
-        <v>10080</v>
-      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2</v>
       </c>
       <c r="B28" s="2">
         <v>5.6744000000000003E-2</v>
       </c>
-      <c r="C28" s="2">
-        <f t="shared" ref="C28:C30" si="8">B28*2</f>
-        <v>0.11348800000000001</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:D30" si="9">B28*4</f>
-        <v>0.22697600000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" ref="E28:E30" si="10">B28*8</f>
-        <v>0.45395200000000002</v>
+      <c r="C28" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ref="F28:F30" si="11">$B$27/B28</f>
+        <f t="shared" ref="F28:F30" si="7">B$27/B28</f>
         <v>1.9064746933596504</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" ref="G28:G30" si="12">F28/A28</f>
+      <c r="G28" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ref="J28:J30" si="8">F28/$A28</f>
         <v>0.95323734667982518</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" ref="H28:H30" si="13">B28*N4/$N$2</f>
+      <c r="K28" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="2">
+        <f>B28*U4/$U$2</f>
         <v>8.6744762962962962E-2</v>
       </c>
-      <c r="I28" s="13">
-        <f t="shared" ref="I28:I30" si="14">$K$27/(H28*1000000000)</f>
+      <c r="O28" s="5">
+        <f>$R$26/(N28*1000000000)</f>
         <v>2.3426520870979255</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4</v>
       </c>
       <c r="B29" s="2">
         <v>3.3764000000000002E-2</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="7"/>
+        <v>3.2040338822414403</v>
+      </c>
+      <c r="G29" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="8"/>
-        <v>6.7528000000000005E-2</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="9"/>
-        <v>0.13505600000000001</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="10"/>
-        <v>0.27011200000000002</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="11"/>
-        <v>3.2040338822414403</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="12"/>
         <v>0.80100847056036006</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="13"/>
+      <c r="K29" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="2">
+        <f>B29*U5/$U$2</f>
         <v>5.142757407407407E-2</v>
       </c>
-      <c r="I29" s="13">
-        <f t="shared" si="14"/>
+      <c r="O29" s="5">
+        <f>$R$26/(N29*1000000000)</f>
         <v>3.9514366302268318</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>8</v>
       </c>
       <c r="B30" s="2">
         <v>4.1105999999999997E-2</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6317569211307354</v>
+      </c>
+      <c r="G30" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I30" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="8"/>
-        <v>8.2211999999999993E-2</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="9"/>
-        <v>0.16442399999999999</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="10"/>
-        <v>0.32884799999999997</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="11"/>
-        <v>2.6317569211307354</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="12"/>
         <v>0.32896961514134193</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="13"/>
+      <c r="K30" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="2">
+        <f>B30*U6/$U$2</f>
         <v>6.3485933333333314E-2</v>
       </c>
-      <c r="I30" s="13">
-        <f t="shared" si="14"/>
+      <c r="O30" s="5">
+        <f>$R$26/(N30*1000000000)</f>
         <v>3.2009106479230578</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -14118,40 +14966,31 @@
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -14162,49 +15001,37 @@
         <v>9.8490000000000001E-3</v>
       </c>
       <c r="D51" s="2">
-        <f>C51*2</f>
-        <v>1.9698E-2</v>
+        <f>C$51/C51</f>
+        <v>1</v>
       </c>
       <c r="E51" s="2">
-        <f>C51*4</f>
-        <v>3.9396E-2</v>
+        <f>D51/$A51</f>
+        <v>1</v>
       </c>
       <c r="F51" s="2">
-        <f>C51*8</f>
-        <v>7.8792000000000001E-2</v>
+        <f>$L51/C51</f>
+        <v>1</v>
       </c>
       <c r="G51" s="2">
-        <f>$C$51/C51</f>
-        <v>1</v>
+        <f>C51*U3/$U$2</f>
+        <v>1.526595E-2</v>
       </c>
       <c r="H51" s="2">
-        <f>G51/A51</f>
-        <v>1</v>
-      </c>
-      <c r="I51" s="2">
-        <f>P51/C51</f>
-        <v>1</v>
-      </c>
-      <c r="J51" s="2">
-        <f>C51*N3/$N$2</f>
-        <v>1.526595E-2</v>
-      </c>
-      <c r="K51" s="2">
         <f>B51*2*B51</f>
         <v>18483200</v>
       </c>
-      <c r="L51" s="13">
-        <f>K51/(J51*1000000000)</f>
+      <c r="I51" s="5">
+        <f>H51/(G51*1000000000)</f>
         <v>1.2107467926987838</v>
       </c>
-      <c r="O51" s="3">
+      <c r="K51" s="3">
         <v>3040</v>
       </c>
-      <c r="P51" s="2">
+      <c r="L51" s="2">
         <v>9.8490000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -14215,49 +15042,37 @@
         <v>1.2366E-2</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" ref="D52:D54" si="15">C52*2</f>
-        <v>2.4732000000000001E-2</v>
+        <f>C$51/C52</f>
+        <v>0.79645803008248417</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" ref="E52:E54" si="16">C52*4</f>
-        <v>4.9464000000000001E-2</v>
+        <f>D52/$A52</f>
+        <v>0.39822901504124208</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" ref="F52:F54" si="17">C52*8</f>
-        <v>9.8928000000000002E-2</v>
+        <f>$L52/C52</f>
+        <v>3.6405466601973155</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" ref="G52:G54" si="18">$C$51/C52</f>
-        <v>0.79645803008248417</v>
+        <f>C52*U4/$U$2</f>
+        <v>1.8903949999999999E-2</v>
       </c>
       <c r="H52" s="2">
-        <f>G52/A52</f>
-        <v>0.39822901504124208</v>
-      </c>
-      <c r="I52" s="2">
-        <f>P52/C52</f>
-        <v>3.6405466601973155</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" ref="J52:J54" si="19">C52*N4/$N$2</f>
-        <v>1.8903949999999999E-2</v>
-      </c>
-      <c r="K52" s="2">
-        <f t="shared" ref="K52:K54" si="20">B52*2*B52</f>
+        <f>B52*2*B52</f>
         <v>36945608</v>
       </c>
-      <c r="L52" s="13">
-        <f t="shared" ref="L52:L54" si="21">K52/(J52*1000000000)</f>
+      <c r="I52" s="5">
+        <f t="shared" ref="I52:I54" si="9">H52/(G52*1000000000)</f>
         <v>1.9543856178206143</v>
       </c>
-      <c r="O52" s="3">
+      <c r="K52" s="3">
         <v>4298</v>
       </c>
-      <c r="P52" s="2">
+      <c r="L52" s="2">
         <v>4.5019000000000003E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -14268,49 +15083,37 @@
         <v>1.9477000000000001E-2</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" si="15"/>
-        <v>3.8954000000000003E-2</v>
+        <f>C$51/C53</f>
+        <v>0.50567335832006977</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="16"/>
-        <v>7.7908000000000005E-2</v>
+        <f>D53/$A53</f>
+        <v>0.12641833958001744</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="17"/>
-        <v>0.15581600000000001</v>
+        <f>$L53/C53</f>
+        <v>4.7571494583354728</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="18"/>
-        <v>0.50567335832006977</v>
+        <f>C53*U5/$U$2</f>
+        <v>2.9666356481481481E-2</v>
       </c>
       <c r="H53" s="2">
-        <f>G53/A53</f>
-        <v>0.12641833958001744</v>
-      </c>
-      <c r="I53" s="2">
-        <f>P53/C53</f>
-        <v>4.7571494583354728</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="19"/>
-        <v>2.9666356481481481E-2</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="20"/>
+        <f>B53*2*B53</f>
         <v>73932800</v>
       </c>
-      <c r="L53" s="13">
-        <f t="shared" si="21"/>
+      <c r="I53" s="5">
+        <f t="shared" si="9"/>
         <v>2.4921429109823712</v>
       </c>
-      <c r="O53" s="3">
+      <c r="K53" s="3">
         <v>6080</v>
       </c>
-      <c r="P53" s="2">
+      <c r="L53" s="2">
         <v>9.2655000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>8</v>
       </c>
@@ -14321,60 +15124,48 @@
         <v>3.2027E-2</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="15"/>
-        <v>6.4054E-2</v>
+        <f>C$51/C54</f>
+        <v>0.30752177849939116</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="16"/>
-        <v>0.128108</v>
+        <f>D54/$A54</f>
+        <v>3.8440222312423895E-2</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="17"/>
-        <v>0.256216</v>
+        <f>$L54/C54</f>
+        <v>5.5361413807100259</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="18"/>
-        <v>0.30752177849939116</v>
+        <f>C54*U6/$U$2</f>
+        <v>4.946392222222222E-2</v>
       </c>
       <c r="H54" s="2">
-        <f>G54/A54</f>
-        <v>3.8440222312423895E-2</v>
-      </c>
-      <c r="I54" s="2">
-        <f>P54/C54</f>
-        <v>5.5361413807100259</v>
-      </c>
-      <c r="J54" s="2">
-        <f t="shared" si="19"/>
-        <v>4.946392222222222E-2</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="20"/>
+        <f>B54*2*B54</f>
         <v>147644928</v>
       </c>
-      <c r="L54" s="13">
-        <f t="shared" si="21"/>
+      <c r="I54" s="5">
+        <f t="shared" si="9"/>
         <v>2.984901345604754</v>
       </c>
-      <c r="O54" s="3">
+      <c r="K54" s="3">
         <v>8592</v>
       </c>
-      <c r="P54" s="2">
+      <c r="L54" s="2">
         <v>0.17730599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="A74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
@@ -14392,20 +15183,20 @@
       <c r="E75" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>9</v>
@@ -14418,17 +15209,17 @@
       <c r="B76" s="2">
         <v>0.331978</v>
       </c>
-      <c r="C76" s="2">
-        <f>B76*2</f>
-        <v>0.66395599999999999</v>
-      </c>
-      <c r="D76" s="2">
-        <f>B76*4</f>
-        <v>1.327912</v>
-      </c>
-      <c r="E76" s="2">
-        <f>B76*8</f>
-        <v>2.655824</v>
+      <c r="C76" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D76" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F76" s="2">
         <f>$B$76/B76</f>
@@ -14439,10 +15230,10 @@
         <v>1</v>
       </c>
       <c r="H76" s="2">
-        <f>B76*N3/$N$2</f>
+        <f>B76*U3/$U$2</f>
         <v>0.51456590000000002</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="5">
         <f>$L$76/(H76*1000000000)</f>
         <v>0.57320835290484662</v>
       </c>
@@ -14461,20 +15252,20 @@
       <c r="B77" s="2">
         <v>0.174596</v>
       </c>
-      <c r="C77" s="2">
-        <f t="shared" ref="C77:C79" si="22">B77*2</f>
-        <v>0.349192</v>
-      </c>
-      <c r="D77" s="2">
-        <f t="shared" ref="D77:D79" si="23">B77*4</f>
-        <v>0.698384</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" ref="E77:E79" si="24">B77*8</f>
-        <v>1.396768</v>
+      <c r="C77" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D77" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" ref="F77:F79" si="25">$B$76/B77</f>
+        <f t="shared" ref="F77:F79" si="10">$B$76/B77</f>
         <v>1.9014066759834132</v>
       </c>
       <c r="G77" s="2">
@@ -14482,11 +15273,11 @@
         <v>0.95070333799170659</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" ref="H77:H79" si="26">B77*N4/$N$2</f>
+        <f>B77*U4/$U$2</f>
         <v>0.26690555185185183</v>
       </c>
-      <c r="I77" s="13">
-        <f t="shared" ref="I77:I79" si="27">$L$76/(H77*1000000000)</f>
+      <c r="I77" s="5">
+        <f t="shared" ref="I77:I79" si="11">$L$76/(H77*1000000000)</f>
         <v>1.1050855628650109</v>
       </c>
     </row>
@@ -14497,20 +15288,20 @@
       <c r="B78" s="2">
         <v>0.10312300000000001</v>
       </c>
-      <c r="C78" s="2">
-        <f t="shared" si="22"/>
-        <v>0.20624600000000001</v>
-      </c>
-      <c r="D78" s="2">
-        <f t="shared" si="23"/>
-        <v>0.41249200000000003</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="24"/>
-        <v>0.82498400000000005</v>
+      <c r="C78" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D78" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>3.2192430398650154</v>
       </c>
       <c r="G78" s="2">
@@ -14518,11 +15309,11 @@
         <v>0.80481075996625384</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="26"/>
+        <f>B78*U5/$U$2</f>
         <v>0.15707160648148147</v>
       </c>
-      <c r="I78" s="13">
-        <f t="shared" si="27"/>
+      <c r="I78" s="5">
+        <f t="shared" si="11"/>
         <v>1.877828072222427</v>
       </c>
     </row>
@@ -14533,20 +15324,20 @@
       <c r="B79" s="2">
         <v>0.122501</v>
       </c>
-      <c r="C79" s="2">
-        <f t="shared" si="22"/>
-        <v>0.245002</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" si="23"/>
-        <v>0.490004</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="24"/>
-        <v>0.98000799999999999</v>
+      <c r="C79" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D79" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="2" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>2.7100023673276135</v>
       </c>
       <c r="G79" s="2">
@@ -14554,28 +15345,54 @@
         <v>0.33875029591595168</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="26"/>
+        <f>B79*U6/$U$2</f>
         <v>0.18919598888888886</v>
       </c>
-      <c r="I79" s="13">
-        <f t="shared" si="27"/>
+      <c r="I79" s="5">
+        <f t="shared" si="11"/>
         <v>1.558983748715838</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A74:G74"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="R6:U6" formulaRange="1"/>
+    <ignoredError sqref="X6:AA6" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548D06F8-5F64-43A8-89AB-B93213778494}">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="e">
+        <f>AVERAGE(A:A)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Coursework-Reports/pr.xlsx
+++ b/Coursework-Reports/pr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Parallel-Programming\Coursework-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EDBC5F-E513-413D-A2E3-5E862E5FF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6D9DA-4628-468F-B7AF-B1909ABAAAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Calka</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>p</t>
-  </si>
-  <si>
-    <t>T(1)</t>
   </si>
   <si>
     <t>MPI 3 12144</t>
@@ -142,6 +139,33 @@
   </si>
   <si>
     <t>S_s(p, W0)</t>
+  </si>
+  <si>
+    <t>T(W0, p)</t>
+  </si>
+  <si>
+    <t>T(W0, 1)</t>
+  </si>
+  <si>
+    <t>MPI 2.2</t>
+  </si>
+  <si>
+    <t>T(2W0, p)</t>
+  </si>
+  <si>
+    <t>T(4W0, p)</t>
+  </si>
+  <si>
+    <t>S_s(p, 2W0)</t>
+  </si>
+  <si>
+    <t>S_s(p, 4W0)</t>
+  </si>
+  <si>
+    <t>T(2W0, 1)</t>
+  </si>
+  <si>
+    <t>T(4W0, 1)</t>
   </si>
 </sst>
 </file>
@@ -261,14 +285,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2460,6 +2484,666 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Przyspieszenie obliczeń S(p): MPI 2.2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$K$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S_s(p, W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$103:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$K$103:$K$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6015166340508808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1855349405621594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB09-4003-B552-35D807762F71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$L$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S_s(p, 2W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$103:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$L$103:$L$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0523484497917628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3513850242950292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB09-4003-B552-35D807762F71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$M$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S_s(p, 4W0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$103:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$M$103:$M$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8258610766108267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5715438368993591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB09-4003-B552-35D807762F71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1498562464"/>
+        <c:axId val="1498552864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1498562464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Liczba procesów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498552864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1498552864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Przyspieszenie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498562464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5515,7 +6199,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$C$51:$C$54</c:f>
+              <c:f>'Arkusz 1'!$D$51:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5980,7 +6664,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$F$51:$F$54</c:f>
+              <c:f>'Arkusz 1'!$G$51:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6473,7 +7157,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$E$51:$E$54</c:f>
+              <c:f>'Arkusz 1'!$F$51:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6963,6 +7647,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8832,6 +9556,522 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13929,6 +15169,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF05BD8-3D65-43C6-891D-46FA808B4517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14195,17 +15473,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AA105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O6"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="10.33203125" customWidth="1"/>
+    <col min="6" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.33203125" customWidth="1"/>
     <col min="15" max="15" width="10.44140625" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
@@ -14213,21 +15491,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="T1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="T1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="8"/>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1">
         <v>1</v>
@@ -14259,46 +15537,46 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="T2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U2">
         <v>2.7</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>23</v>
+      <c r="W2" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="X2">
         <v>4.2</v>
@@ -14374,13 +15652,13 @@
         <v>1100000000</v>
       </c>
       <c r="T3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U3">
         <f>X6</f>
         <v>4.1850000000000005</v>
       </c>
-      <c r="W3" s="6"/>
+      <c r="W3" s="7"/>
       <c r="X3">
         <v>4.12</v>
       </c>
@@ -14451,13 +15729,13 @@
         <v>9.4224455676701044</v>
       </c>
       <c r="T4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U4">
         <f>Y6</f>
         <v>4.1275000000000004</v>
       </c>
-      <c r="W4" s="6"/>
+      <c r="W4" s="7"/>
       <c r="X4">
         <v>4.18</v>
       </c>
@@ -14528,13 +15806,13 @@
         <v>15.868437297532997</v>
       </c>
       <c r="T5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U5">
         <f>Z6</f>
         <v>4.1124999999999998</v>
       </c>
-      <c r="W5" s="6"/>
+      <c r="W5" s="7"/>
       <c r="X5">
         <v>4.24</v>
       </c>
@@ -14605,14 +15883,14 @@
         <v>12.440919768508413</v>
       </c>
       <c r="T6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U6">
         <f>AA6</f>
         <v>4.17</v>
       </c>
       <c r="W6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X6">
         <f>AVERAGE(X2:X5)</f>
@@ -14642,7 +15920,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="R25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>9</v>
@@ -14665,34 +15943,34 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="N26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="R26">
         <f>2*S26*S26</f>
@@ -14942,20 +16220,20 @@
         <v>3.2009106479230578</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -14963,34 +16241,31 @@
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>11</v>
+      <c r="J50" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -15001,37 +16276,34 @@
         <v>9.8490000000000001E-3</v>
       </c>
       <c r="D51" s="2">
-        <f>C$51/C51</f>
+        <v>9.8490000000000001E-3</v>
+      </c>
+      <c r="E51" s="2">
+        <f>D$51/D51</f>
         <v>1</v>
       </c>
-      <c r="E51" s="2">
-        <f>D51/$A51</f>
+      <c r="F51" s="2">
+        <f>E51/$A51</f>
         <v>1</v>
       </c>
-      <c r="F51" s="2">
-        <f>$L51/C51</f>
+      <c r="G51" s="2">
+        <f>$C51/D51</f>
         <v>1</v>
       </c>
-      <c r="G51" s="2">
-        <f>C51*U3/$U$2</f>
+      <c r="H51" s="2">
+        <f>D51*U3/$U$2</f>
         <v>1.526595E-2</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="2">
         <f>B51*2*B51</f>
         <v>18483200</v>
       </c>
-      <c r="I51" s="5">
-        <f>H51/(G51*1000000000)</f>
+      <c r="J51" s="5">
+        <f>I51/(H51*1000000000)</f>
         <v>1.2107467926987838</v>
       </c>
-      <c r="K51" s="3">
-        <v>3040</v>
-      </c>
-      <c r="L51" s="2">
-        <v>9.8490000000000001E-3</v>
-      </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -15039,40 +16311,37 @@
         <v>4298</v>
       </c>
       <c r="C52" s="2">
+        <v>4.5019000000000003E-2</v>
+      </c>
+      <c r="D52" s="2">
         <v>1.2366E-2</v>
       </c>
-      <c r="D52" s="2">
-        <f>C$51/C52</f>
+      <c r="E52" s="2">
+        <f>D$51/D52</f>
         <v>0.79645803008248417</v>
       </c>
-      <c r="E52" s="2">
-        <f>D52/$A52</f>
+      <c r="F52" s="2">
+        <f>E52/$A52</f>
         <v>0.39822901504124208</v>
       </c>
-      <c r="F52" s="2">
-        <f>$L52/C52</f>
+      <c r="G52" s="2">
+        <f>$C52/D52</f>
         <v>3.6405466601973155</v>
       </c>
-      <c r="G52" s="2">
-        <f>C52*U4/$U$2</f>
+      <c r="H52" s="2">
+        <f>D52*U4/$U$2</f>
         <v>1.8903949999999999E-2</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <f>B52*2*B52</f>
         <v>36945608</v>
       </c>
-      <c r="I52" s="5">
-        <f t="shared" ref="I52:I54" si="9">H52/(G52*1000000000)</f>
+      <c r="J52" s="5">
+        <f>I52/(H52*1000000000)</f>
         <v>1.9543856178206143</v>
       </c>
-      <c r="K52" s="3">
-        <v>4298</v>
-      </c>
-      <c r="L52" s="2">
-        <v>4.5019000000000003E-2</v>
-      </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>4</v>
       </c>
@@ -15080,40 +16349,37 @@
         <v>6080</v>
       </c>
       <c r="C53" s="2">
+        <v>9.2655000000000001E-2</v>
+      </c>
+      <c r="D53" s="2">
         <v>1.9477000000000001E-2</v>
       </c>
-      <c r="D53" s="2">
-        <f>C$51/C53</f>
+      <c r="E53" s="2">
+        <f>D$51/D53</f>
         <v>0.50567335832006977</v>
       </c>
-      <c r="E53" s="2">
-        <f>D53/$A53</f>
+      <c r="F53" s="2">
+        <f>E53/$A53</f>
         <v>0.12641833958001744</v>
       </c>
-      <c r="F53" s="2">
-        <f>$L53/C53</f>
+      <c r="G53" s="2">
+        <f>$C53/D53</f>
         <v>4.7571494583354728</v>
       </c>
-      <c r="G53" s="2">
-        <f>C53*U5/$U$2</f>
+      <c r="H53" s="2">
+        <f>D53*U5/$U$2</f>
         <v>2.9666356481481481E-2</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <f>B53*2*B53</f>
         <v>73932800</v>
       </c>
-      <c r="I53" s="5">
-        <f t="shared" si="9"/>
+      <c r="J53" s="5">
+        <f>I53/(H53*1000000000)</f>
         <v>2.4921429109823712</v>
       </c>
-      <c r="K53" s="3">
-        <v>6080</v>
-      </c>
-      <c r="L53" s="2">
-        <v>9.2655000000000001E-2</v>
-      </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>8</v>
       </c>
@@ -15121,49 +16387,46 @@
         <v>8592</v>
       </c>
       <c r="C54" s="2">
+        <v>0.17730599999999999</v>
+      </c>
+      <c r="D54" s="2">
         <v>3.2027E-2</v>
       </c>
-      <c r="D54" s="2">
-        <f>C$51/C54</f>
+      <c r="E54" s="2">
+        <f>D$51/D54</f>
         <v>0.30752177849939116</v>
       </c>
-      <c r="E54" s="2">
-        <f>D54/$A54</f>
+      <c r="F54" s="2">
+        <f>E54/$A54</f>
         <v>3.8440222312423895E-2</v>
       </c>
-      <c r="F54" s="2">
-        <f>$L54/C54</f>
+      <c r="G54" s="2">
+        <f>$C54/D54</f>
         <v>5.5361413807100259</v>
       </c>
-      <c r="G54" s="2">
-        <f>C54*U6/$U$2</f>
+      <c r="H54" s="2">
+        <f>D54*U6/$U$2</f>
         <v>4.946392222222222E-2</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <f>B54*2*B54</f>
         <v>147644928</v>
       </c>
-      <c r="I54" s="5">
-        <f t="shared" si="9"/>
+      <c r="J54" s="5">
+        <f>I54/(H54*1000000000)</f>
         <v>2.984901345604754</v>
-      </c>
-      <c r="K54" s="3">
-        <v>8592</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0.17730599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="A74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
@@ -15190,13 +16453,13 @@
         <v>6</v>
       </c>
       <c r="H75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="L75" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>9</v>
@@ -15265,7 +16528,7 @@
         <v>#N/A</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" ref="F77:F79" si="10">$B$76/B77</f>
+        <f t="shared" ref="F77:F79" si="9">$B$76/B77</f>
         <v>1.9014066759834132</v>
       </c>
       <c r="G77" s="2">
@@ -15277,7 +16540,7 @@
         <v>0.26690555185185183</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" ref="I77:I79" si="11">$L$76/(H77*1000000000)</f>
+        <f t="shared" ref="I77:I79" si="10">$L$76/(H77*1000000000)</f>
         <v>1.1050855628650109</v>
       </c>
     </row>
@@ -15301,7 +16564,7 @@
         <v>#N/A</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.2192430398650154</v>
       </c>
       <c r="G78" s="2">
@@ -15313,7 +16576,7 @@
         <v>0.15707160648148147</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.877828072222427</v>
       </c>
     </row>
@@ -15337,7 +16600,7 @@
         <v>#N/A</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.7100023673276135</v>
       </c>
       <c r="G79" s="2">
@@ -15349,12 +16612,250 @@
         <v>0.18919598888888886</v>
       </c>
       <c r="I79" s="5">
+        <f t="shared" si="10"/>
+        <v>1.558983748715838</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>1</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1906</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1.6115999999999998E-2</v>
+      </c>
+      <c r="E103" s="2">
+        <v>6.7831000000000002E-2</v>
+      </c>
+      <c r="F103" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1.6115999999999998E-2</v>
+      </c>
+      <c r="H103" s="2">
+        <v>6.7831000000000002E-2</v>
+      </c>
+      <c r="I103" s="2">
+        <f>D$51/F103</f>
+        <v>2.4021951219512192</v>
+      </c>
+      <c r="J103" s="2">
+        <f>I103/$A103</f>
+        <v>2.4021951219512192</v>
+      </c>
+      <c r="K103" s="2">
+        <f>C103/F103</f>
+        <v>1</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" ref="L103:M105" si="11">D103/G103</f>
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
         <f t="shared" si="11"/>
-        <v>1.558983748715838</v>
+        <v>1</v>
+      </c>
+      <c r="N103" s="2">
+        <f>F103*U3/$U$2</f>
+        <v>6.3550000000000013E-3</v>
+      </c>
+      <c r="O103" s="2">
+        <f>B103*2*B103</f>
+        <v>7265672</v>
+      </c>
+      <c r="P103" s="5">
+        <f>O103/(N103*1000000000)</f>
+        <v>1.1433000786782059</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>2</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2694</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1.0635E-2</v>
+      </c>
+      <c r="D104" s="2">
+        <v>3.5480999999999999E-2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0.120547</v>
+      </c>
+      <c r="F104" s="2">
+        <v>4.0879999999999996E-3</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1.7288000000000001E-2</v>
+      </c>
+      <c r="H104" s="2">
+        <v>6.6021999999999997E-2</v>
+      </c>
+      <c r="I104" s="2">
+        <f>D$51/F104</f>
+        <v>2.4092465753424661</v>
+      </c>
+      <c r="J104" s="2">
+        <f>I104/$A104</f>
+        <v>1.2046232876712331</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" ref="K104:K105" si="12">C104/F104</f>
+        <v>2.6015166340508808</v>
+      </c>
+      <c r="L104" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0523484497917628</v>
+      </c>
+      <c r="M104" s="2">
+        <f t="shared" si="11"/>
+        <v>1.8258610766108267</v>
+      </c>
+      <c r="N104" s="2">
+        <f t="shared" ref="N104:N105" si="13">F104*U4/$U$2</f>
+        <v>6.2493407407407404E-3</v>
+      </c>
+      <c r="O104" s="2">
+        <f>B104*2*B104</f>
+        <v>14515272</v>
+      </c>
+      <c r="P104" s="5">
+        <f>O104/(N104*1000000000)</f>
+        <v>2.3226885206261758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>4</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3731</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1.9671999999999999E-2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>5.6619000000000003E-2</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.21814600000000001</v>
+      </c>
+      <c r="F105" s="2">
+        <v>9.0010000000000003E-3</v>
+      </c>
+      <c r="G105" s="2">
+        <v>2.4079E-2</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.13880999999999999</v>
+      </c>
+      <c r="I105" s="2">
+        <f>D$51/F105</f>
+        <v>1.0942117542495278</v>
+      </c>
+      <c r="J105" s="2">
+        <f>I105/$A105</f>
+        <v>0.27355293856238194</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="12"/>
+        <v>2.1855349405621594</v>
+      </c>
+      <c r="L105" s="2">
+        <f t="shared" si="11"/>
+        <v>2.3513850242950292</v>
+      </c>
+      <c r="M105" s="2">
+        <f t="shared" si="11"/>
+        <v>1.5715438368993591</v>
+      </c>
+      <c r="N105" s="2">
+        <f t="shared" si="13"/>
+        <v>1.3709856481481479E-2</v>
+      </c>
+      <c r="O105" s="2">
+        <f>B105*2*B105</f>
+        <v>27840722</v>
+      </c>
+      <c r="P105" s="5">
+        <f>O105/(N105*1000000000)</f>
+        <v>2.0307084933825323</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A101:I101"/>
     <mergeCell ref="A74:G74"/>
     <mergeCell ref="W2:W5"/>
     <mergeCell ref="T1:U1"/>
@@ -15383,7 +16884,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">

--- a/Coursework-Reports/pr.xlsx
+++ b/Coursework-Reports/pr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Parallel-Programming\Coursework-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6D9DA-4628-468F-B7AF-B1909ABAAAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD81BA-11BA-4C3D-A067-D0DF81ABA290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
                   <c:v>0.30980999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.147087</c:v>
+                  <c:v>0.157087</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.5738999999999996E-2</c:v>
@@ -1687,6 +1687,85 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$76:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$76:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9DB-4D4E-BB08-78593A69DC53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1947,6 +2026,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2177,6 +2287,82 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-891D-4874-82F2-1BC9E259E20E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$76:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD35-49E8-9B2F-4D8EECBDB9B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2440,6 +2626,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2526,7 +2743,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Przyspieszenie obliczeń S(p): MPI 2.2</a:t>
+              <a:t>Skalowane przyspieszenie obliczeń S_s(p): MPI 2.2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2716,7 +2933,7 @@
                   <c:v>2.0523484497917628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3513850242950292</c:v>
+                  <c:v>2.090882233465047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,6 +3023,79 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DB09-4003-B552-35D807762F71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$103:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$103:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04E7-46B6-A4C3-0ABA119E61BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3383,7 +3673,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1063044320708153</c:v>
+                  <c:v>1.9722192161031782</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.6134081339880333</c:v>
@@ -3572,6 +3862,85 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-968A-48F5-96F7-0827913BA74A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2869-44C5-95EC-2C5DEA947C52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4142,7 +4511,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0531522160354077</c:v>
+                  <c:v>0.98610960805158909</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.90335203349700832</c:v>
@@ -4331,6 +4700,82 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E697-4293-B412-06AFCECDE797}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E821-4712-80F5-6150BF424F7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5274,6 +5719,85 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$27:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$27:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10AE-4D33-9FAA-FA300863A2A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5534,6 +6058,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5764,6 +6319,82 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D683-462F-AC6D-5E38F2BBBD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$27:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFE8-4457-A42C-D860EE92CA9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6027,6 +6658,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6106,7 +6768,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Czas wykonania T(p * w_0, p): MPI 2</a:t>
+              <a:t>Czas wykonania:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPI 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6150,7 +6820,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Czas wykonania</c:v>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$D$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(W0, p)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6222,6 +6900,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F3C-4538-A768-9698080DE4FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arkusz 1'!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(W0, 1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$51:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$C$51:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.8490000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5019000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2655000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17730599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DA6-42D0-9E02-2C07999ACC50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6485,6 +7250,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6664,7 +7460,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$G$51:$G$54</c:f>
+              <c:f>'Arkusz 1'!$F$51:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6687,6 +7483,85 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B57-428A-A621-5E0E9766E625}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$51:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$51:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A59F-40F6-9DA5-B15D2C1FA23B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6950,6 +7825,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7157,7 +8063,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arkusz 1'!$F$51:$F$54</c:f>
+              <c:f>'Arkusz 1'!$G$51:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7165,13 +8071,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39822901504124208</c:v>
+                  <c:v>1.8202733300986578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12641833958001744</c:v>
+                  <c:v>1.1892873645838682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8440222312423895E-2</c:v>
+                  <c:v>0.69201767258875324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7180,6 +8086,82 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E16F-47DB-98C0-E048DE3DCE88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idealnie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Arkusz 1'!$A$51:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34D1-47A3-BB16-03D09C897A7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15475,8 +16457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15680,7 +16662,7 @@
         <v>7.6367000000000004E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.147087</v>
+        <v>0.157087</v>
       </c>
       <c r="D4" s="2">
         <v>0.28979100000000002</v>
@@ -15694,7 +16676,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>2.1063044320708153</v>
+        <v>1.9722192161031782</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
@@ -15710,7 +16692,7 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="1"/>
-        <v>1.0531522160354077</v>
+        <v>0.98610960805158909</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="1"/>
@@ -16250,10 +17232,10 @@
         <v>24</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>18</v>
@@ -16283,11 +17265,11 @@
         <v>1</v>
       </c>
       <c r="F51" s="2">
-        <f>E51/$A51</f>
+        <f>$C51/D51</f>
         <v>1</v>
       </c>
       <c r="G51" s="2">
-        <f>$C51/D51</f>
+        <f>F51/A51</f>
         <v>1</v>
       </c>
       <c r="H51" s="2">
@@ -16321,12 +17303,12 @@
         <v>0.79645803008248417</v>
       </c>
       <c r="F52" s="2">
-        <f>E52/$A52</f>
-        <v>0.39822901504124208</v>
-      </c>
-      <c r="G52" s="2">
         <f>$C52/D52</f>
         <v>3.6405466601973155</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" ref="G52:G54" si="9">F52/A52</f>
+        <v>1.8202733300986578</v>
       </c>
       <c r="H52" s="2">
         <f>D52*U4/$U$2</f>
@@ -16359,12 +17341,12 @@
         <v>0.50567335832006977</v>
       </c>
       <c r="F53" s="2">
-        <f>E53/$A53</f>
-        <v>0.12641833958001744</v>
-      </c>
-      <c r="G53" s="2">
         <f>$C53/D53</f>
         <v>4.7571494583354728</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1892873645838682</v>
       </c>
       <c r="H53" s="2">
         <f>D53*U5/$U$2</f>
@@ -16397,12 +17379,12 @@
         <v>0.30752177849939116</v>
       </c>
       <c r="F54" s="2">
-        <f>E54/$A54</f>
-        <v>3.8440222312423895E-2</v>
-      </c>
-      <c r="G54" s="2">
         <f>$C54/D54</f>
         <v>5.5361413807100259</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="9"/>
+        <v>0.69201767258875324</v>
       </c>
       <c r="H54" s="2">
         <f>D54*U6/$U$2</f>
@@ -16528,7 +17510,7 @@
         <v>#N/A</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" ref="F77:F79" si="9">$B$76/B77</f>
+        <f t="shared" ref="F77:F79" si="10">$B$76/B77</f>
         <v>1.9014066759834132</v>
       </c>
       <c r="G77" s="2">
@@ -16540,7 +17522,7 @@
         <v>0.26690555185185183</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" ref="I77:I79" si="10">$L$76/(H77*1000000000)</f>
+        <f t="shared" ref="I77:I79" si="11">$L$76/(H77*1000000000)</f>
         <v>1.1050855628650109</v>
       </c>
     </row>
@@ -16564,7 +17546,7 @@
         <v>#N/A</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2192430398650154</v>
       </c>
       <c r="G78" s="2">
@@ -16576,7 +17558,7 @@
         <v>0.15707160648148147</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.877828072222427</v>
       </c>
     </row>
@@ -16600,7 +17582,7 @@
         <v>#N/A</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7100023673276135</v>
       </c>
       <c r="G79" s="2">
@@ -16612,7 +17594,7 @@
         <v>0.18919598888888886</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.558983748715838</v>
       </c>
     </row>
@@ -16717,11 +17699,11 @@
         <v>1</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" ref="L103:M105" si="11">D103/G103</f>
+        <f t="shared" ref="L103:M105" si="12">D103/G103</f>
         <v>1</v>
       </c>
       <c r="M103" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N103" s="2">
@@ -16771,19 +17753,19 @@
         <v>1.2046232876712331</v>
       </c>
       <c r="K104" s="2">
-        <f t="shared" ref="K104:K105" si="12">C104/F104</f>
+        <f t="shared" ref="K104:K105" si="13">C104/F104</f>
         <v>2.6015166340508808</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0523484497917628</v>
       </c>
       <c r="M104" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8258610766108267</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" ref="N104:N105" si="13">F104*U4/$U$2</f>
+        <f t="shared" ref="N104:N105" si="14">F104*U4/$U$2</f>
         <v>6.2493407407407404E-3</v>
       </c>
       <c r="O104" s="2">
@@ -16815,7 +17797,7 @@
         <v>9.0010000000000003E-3</v>
       </c>
       <c r="G105" s="2">
-        <v>2.4079E-2</v>
+        <v>2.7078999999999999E-2</v>
       </c>
       <c r="H105" s="2">
         <v>0.13880999999999999</v>
@@ -16829,19 +17811,19 @@
         <v>0.27355293856238194</v>
       </c>
       <c r="K105" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1855349405621594</v>
+      </c>
+      <c r="L105" s="2">
         <f t="shared" si="12"/>
-        <v>2.1855349405621594</v>
-      </c>
-      <c r="L105" s="2">
-        <f t="shared" si="11"/>
-        <v>2.3513850242950292</v>
+        <v>2.090882233465047</v>
       </c>
       <c r="M105" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5715438368993591</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3709856481481479E-2</v>
       </c>
       <c r="O105" s="2">

--- a/Coursework-Reports/pr.xlsx
+++ b/Coursework-Reports/pr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Parallel-Programming\Coursework-Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD81BA-11BA-4C3D-A067-D0DF81ABA290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42296D3D-FDC0-4C1D-828A-9B6431CC8A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16457,8 +16457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
